--- a/Tax/data/L_02a.xlsx
+++ b/Tax/data/L_02a.xlsx
@@ -1,128 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\Tax\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBC9479-1E8F-4118-9C18-818A4382D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4260" windowWidth="28365" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5970" yWindow="4260" windowWidth="28365" windowHeight="16305" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FOP" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOP" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>HEL</t>
-  </si>
-  <si>
-    <t>quarterly income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total inc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total tax </t>
-  </si>
-  <si>
-    <t>prev tax</t>
-  </si>
-  <si>
-    <t>tax pay</t>
-  </si>
-  <si>
-    <t>01_2022</t>
-  </si>
-  <si>
-    <t>02_2022</t>
-  </si>
-  <si>
-    <t>03_2022</t>
-  </si>
-  <si>
-    <t>04_2022</t>
-  </si>
-  <si>
-    <t>01_2023</t>
-  </si>
-  <si>
-    <t>02_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hel</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>03_2023</t>
-  </si>
-  <si>
-    <t>04_2023</t>
-  </si>
-  <si>
-    <t>01_2024</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF525252"/>
       <sz val="10"/>
-      <color rgb="FF525252"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -220,69 +142,128 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -582,588 +563,660 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.140625" customWidth="1" min="12" max="12"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>HEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>quarterly income</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total inc </t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total tax </t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>prev tax</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>tax pay</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>quarterly income</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total inc </t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total tax </t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>prev tax</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>tax pay</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="7" t="n">
         <v>9165</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>01_2022</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4">
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>02_2022</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" t="n">
         <v>36000</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>1800</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1600</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="L4">
+      <c r="J4" s="10" t="n"/>
+      <c r="L4" t="n">
         <v>84750</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2900</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="10" t="n">
         <v>1337.5</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5">
+      <c r="B5" s="7" t="n">
         <v>23168.32</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>03_2022</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n">
         <v>15100</v>
       </c>
       <c r="G5">
         <f>G4+F5</f>
-        <v>51100</v>
+        <v/>
       </c>
       <c r="H5" s="11">
         <f>G5*0.05</f>
-        <v>2555</v>
+        <v/>
       </c>
       <c r="I5">
         <f>H4</f>
-        <v>1800</v>
+        <v/>
       </c>
       <c r="J5" s="10">
         <f>H5-I5</f>
-        <v>755</v>
-      </c>
-      <c r="K5">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>106334.03</v>
       </c>
       <c r="L5">
         <f>L4+K5</f>
-        <v>191084.03</v>
+        <v/>
       </c>
       <c r="M5" s="12">
         <f>L5*0.05</f>
-        <v>9554.201500000001</v>
-      </c>
-      <c r="N5">
+        <v/>
+      </c>
+      <c r="N5" t="n">
         <v>4237.5</v>
       </c>
       <c r="O5" s="13">
         <f>M5-N5</f>
-        <v>5316.701500000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="n">
         <v>23400</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>04_2022</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n">
         <v>70560</v>
       </c>
       <c r="G6">
         <f>G5+F6</f>
-        <v>121660</v>
+        <v/>
       </c>
       <c r="H6" s="11">
         <f>G6*0.05</f>
-        <v>6083</v>
+        <v/>
       </c>
       <c r="I6">
         <f>H5</f>
-        <v>2555</v>
+        <v/>
       </c>
       <c r="J6" s="10">
         <f>H6-I6</f>
-        <v>3528</v>
-      </c>
-      <c r="K6">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>80850</v>
       </c>
       <c r="L6">
         <f>L5+K6</f>
-        <v>271934.03000000003</v>
+        <v/>
       </c>
       <c r="M6" s="12">
         <f>L6*0.05</f>
-        <v>13596.701500000003</v>
+        <v/>
       </c>
       <c r="N6" s="14">
         <f>M5</f>
-        <v>9554.201500000001</v>
+        <v/>
       </c>
       <c r="O6" s="13">
         <f>M6-N6</f>
-        <v>4042.5000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="15">
         <f>SUM(B3:B6)</f>
-        <v>70733.320000000007</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
+        <v/>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>01_2023</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>54000</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>54000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="11" t="n">
         <v>2700</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="10" t="n">
         <v>2700</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>81580</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>81580</v>
       </c>
       <c r="M7" s="11">
         <f>L7*0.05</f>
-        <v>4079</v>
-      </c>
-      <c r="N7">
+        <v/>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="10">
         <f>L7*0.05</f>
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>02_2023</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="n">
         <v>58500</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>112500</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="11" t="n">
         <v>5625</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>2700</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="10" t="n">
         <v>2925</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>75228.36</v>
       </c>
       <c r="L8">
         <f>L7+K8</f>
-        <v>156808.35999999999</v>
+        <v/>
       </c>
       <c r="M8" s="12">
         <f>L8*0.05</f>
-        <v>7840.4179999999997</v>
+        <v/>
       </c>
       <c r="N8">
         <f>M7</f>
-        <v>4079</v>
+        <v/>
       </c>
       <c r="O8" s="13">
         <f>M8-N8</f>
-        <v>3761.4179999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="18">
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="16">
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hel</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>San</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>03_2023</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="n">
         <v>61500</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="19" t="n">
         <v>174000</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="19" t="n">
         <v>8700</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="19" t="n">
         <v>5625</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="20" t="n">
         <v>3075</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="19" t="n">
         <v>4493</v>
       </c>
-      <c r="L9" s="19">
-        <v>161301.35999999999</v>
-      </c>
-      <c r="M9" s="19">
-        <v>8065.0679999999993</v>
-      </c>
-      <c r="N9" s="19">
-        <v>7840.4179999999997</v>
-      </c>
-      <c r="O9" s="20">
-        <v>224.64999999999961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="L9" s="19" t="n">
+        <v>161301.36</v>
+      </c>
+      <c r="M9" s="19" t="n">
+        <v>8065.067999999999</v>
+      </c>
+      <c r="N9" s="19" t="n">
+        <v>7840.418</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>224.6499999999996</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="n">
         <v>44577</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>4300</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>2400</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>04_2023</t>
+        </is>
+      </c>
+      <c r="F10" s="23" t="n">
         <v>63000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="24" t="n">
         <v>237000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="24" t="n">
         <v>11850</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="24" t="n">
         <v>8700</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="25" t="n">
         <v>3150</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>01_2024</t>
+        </is>
+      </c>
+      <c r="F11" s="23" t="n">
         <v>119592</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="24" t="n">
         <v>119592</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="24" t="n">
         <v>5979.6</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="25" t="n">
         <v>5979.6</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="BR12">
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="24" t="n"/>
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="25" t="n"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>02_2024</t>
+        </is>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>128105</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>247697</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <v>12384.85</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>5979.6</v>
+      </c>
+      <c r="J12" s="25" t="n">
+        <v>6405.25</v>
+      </c>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="BR12" t="n">
         <v>10000</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>10000</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>500</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>0</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E13" s="22"/>
-      <c r="F13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="BR13">
+    <row r="13">
+      <c r="E13" s="22" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="J13" s="10" t="n"/>
+      <c r="O13" s="10" t="n"/>
+      <c r="BR13" t="n">
         <v>654321</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>666666</v>
       </c>
-      <c r="BT13">
-        <v>33333.300000000003</v>
-      </c>
-      <c r="BU13">
+      <c r="BT13" t="n">
+        <v>33333.3</v>
+      </c>
+      <c r="BU13" t="n">
         <v>0</v>
       </c>
-      <c r="BV13">
-        <v>33333.300000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E14" s="22"/>
-      <c r="F14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="O37" s="10"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="10"/>
+      <c r="BV13" t="n">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="J14" s="10" t="n"/>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="J15" s="10" t="n"/>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="J16" s="10" t="n"/>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="J18" s="10" t="n"/>
+      <c r="O18" s="10" t="n"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="J19" s="10" t="n"/>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="J20" s="10" t="n"/>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="J21" s="10" t="n"/>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="O26" s="10" t="n"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="J27" s="10" t="n"/>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="J28" s="10" t="n"/>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="J29" s="10" t="n"/>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="J30" s="10" t="n"/>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="J31" s="10" t="n"/>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="J32" s="10" t="n"/>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="J33" s="10" t="n"/>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="J34" s="10" t="n"/>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="J35" s="10" t="n"/>
+      <c r="O35" s="10" t="n"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="9" t="n"/>
+      <c r="J36" s="10" t="n"/>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="J37" s="10" t="n"/>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Tax/data/L_02a.xlsx
+++ b/Tax/data/L_02a.xlsx
@@ -1,50 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\Tax\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560D400-A407-4851-B850-E63B89139B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5970" yWindow="4260" windowWidth="28365" windowHeight="16305" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4095" yWindow="7695" windowWidth="28365" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FOP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>HEL</t>
+  </si>
+  <si>
+    <t>quarterly income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total inc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total tax </t>
+  </si>
+  <si>
+    <t>prev tax</t>
+  </si>
+  <si>
+    <t>tax pay</t>
+  </si>
+  <si>
+    <t>01_2022</t>
+  </si>
+  <si>
+    <t>02_2022</t>
+  </si>
+  <si>
+    <t>03_2022</t>
+  </si>
+  <si>
+    <t>04_2022</t>
+  </si>
+  <si>
+    <t>01_2023</t>
+  </si>
+  <si>
+    <t>02_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hel</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>03_2023</t>
+  </si>
+  <si>
+    <t>04_2023</t>
+  </si>
+  <si>
+    <t>01_2024</t>
+  </si>
+  <si>
+    <t>02_2024</t>
+  </si>
+  <si>
+    <t>03_2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF525252"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF525252"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,128 +226,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Neutral 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -563,660 +588,615 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:K12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.140625" customWidth="1" min="12" max="12"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SAN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>HEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>quarterly income</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">total inc </t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">total tax </t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>prev tax</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>tax pay</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>quarterly income</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">total inc </t>
-        </is>
-      </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">total tax </t>
-        </is>
-      </c>
-      <c r="N2" s="4" t="inlineStr">
-        <is>
-          <t>prev tax</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>tax pay</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="7" t="n">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>9165</v>
       </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>01_2022</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="n">
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>15000</v>
       </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>02_2022</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" t="n">
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4">
         <v>36000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1800</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1600</v>
       </c>
-      <c r="J4" s="10" t="n"/>
-      <c r="L4" t="n">
+      <c r="J4" s="10"/>
+      <c r="L4">
         <v>84750</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2900</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="10">
         <v>1337.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>23168.32</v>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>03_2022</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n">
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
         <v>15100</v>
       </c>
       <c r="G5">
         <f>G4+F5</f>
-        <v/>
+        <v>51100</v>
       </c>
       <c r="H5" s="11">
         <f>G5*0.05</f>
-        <v/>
+        <v>2555</v>
       </c>
       <c r="I5">
         <f>H4</f>
-        <v/>
+        <v>1800</v>
       </c>
       <c r="J5" s="10">
         <f>H5-I5</f>
-        <v/>
-      </c>
-      <c r="K5" t="n">
+        <v>755</v>
+      </c>
+      <c r="K5">
         <v>106334.03</v>
       </c>
       <c r="L5">
         <f>L4+K5</f>
-        <v/>
+        <v>191084.03</v>
       </c>
       <c r="M5" s="12">
         <f>L5*0.05</f>
-        <v/>
-      </c>
-      <c r="N5" t="n">
+        <v>9554.201500000001</v>
+      </c>
+      <c r="N5">
         <v>4237.5</v>
       </c>
       <c r="O5" s="13">
         <f>M5-N5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="n">
+        <v>5316.701500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>23400</v>
       </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>04_2022</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="n">
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9">
         <v>70560</v>
       </c>
       <c r="G6">
         <f>G5+F6</f>
-        <v/>
+        <v>121660</v>
       </c>
       <c r="H6" s="11">
         <f>G6*0.05</f>
-        <v/>
+        <v>6083</v>
       </c>
       <c r="I6">
         <f>H5</f>
-        <v/>
+        <v>2555</v>
       </c>
       <c r="J6" s="10">
         <f>H6-I6</f>
-        <v/>
-      </c>
-      <c r="K6" t="n">
+        <v>3528</v>
+      </c>
+      <c r="K6">
         <v>80850</v>
       </c>
       <c r="L6">
         <f>L5+K6</f>
-        <v/>
+        <v>271934.03000000003</v>
       </c>
       <c r="M6" s="12">
         <f>L6*0.05</f>
-        <v/>
+        <v>13596.701500000003</v>
       </c>
       <c r="N6" s="14">
         <f>M5</f>
-        <v/>
+        <v>9554.201500000001</v>
       </c>
       <c r="O6" s="13">
         <f>M6-N6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
+        <v>4042.5000000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>01_2023</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="n">
+        <v>70733.320000000007</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>54000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>54000</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="11">
         <v>2700</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>2700</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>81580</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>81580</v>
       </c>
       <c r="M7" s="11">
         <f>L7*0.05</f>
-        <v/>
-      </c>
-      <c r="N7" t="n">
+        <v>4079</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" s="10">
         <f>L7*0.05</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>02_2023</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="n">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9">
         <v>58500</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>112500</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="11">
         <v>5625</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>2700</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>2925</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>75228.36</v>
       </c>
       <c r="L8">
         <f>L7+K8</f>
-        <v/>
+        <v>156808.35999999999</v>
       </c>
       <c r="M8" s="12">
         <f>L8*0.05</f>
-        <v/>
+        <v>7840.4179999999997</v>
       </c>
       <c r="N8">
         <f>M7</f>
-        <v/>
+        <v>4079</v>
       </c>
       <c r="O8" s="13">
         <f>M8-N8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customFormat="1" s="16">
-      <c r="B9" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hel</t>
-        </is>
-      </c>
-      <c r="C9" s="16" t="inlineStr">
-        <is>
-          <t>San</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>03_2023</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="n">
+        <v>3761.4179999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="18">
         <v>61500</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>174000</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>8700</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>5625</v>
       </c>
-      <c r="J9" s="20" t="n">
+      <c r="J9" s="20">
         <v>3075</v>
       </c>
-      <c r="K9" s="19" t="n">
+      <c r="K9" s="19">
         <v>4493</v>
       </c>
-      <c r="L9" s="19" t="n">
-        <v>161301.36</v>
-      </c>
-      <c r="M9" s="19" t="n">
-        <v>8065.067999999999</v>
-      </c>
-      <c r="N9" s="19" t="n">
-        <v>7840.418</v>
-      </c>
-      <c r="O9" s="20" t="n">
-        <v>224.6499999999996</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="L9" s="19">
+        <v>161301.35999999999</v>
+      </c>
+      <c r="M9" s="19">
+        <v>8065.0679999999993</v>
+      </c>
+      <c r="N9" s="19">
+        <v>7840.4179999999997</v>
+      </c>
+      <c r="O9" s="20">
+        <v>224.64999999999961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>44577</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>4300</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2400</v>
       </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>04_2023</t>
-        </is>
-      </c>
-      <c r="F10" s="23" t="n">
+      <c r="E10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="23">
         <v>63000</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="24">
         <v>237000</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="24">
         <v>11850</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="24">
         <v>8700</v>
       </c>
-      <c r="J10" s="25" t="n">
+      <c r="J10" s="25">
         <v>3150</v>
       </c>
-      <c r="K10" s="24" t="n">
+      <c r="K10" s="24">
         <v>0</v>
       </c>
-      <c r="O10" s="10" t="n"/>
-    </row>
-    <row r="11">
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>01_2024</t>
-        </is>
-      </c>
-      <c r="F11" s="23" t="n">
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="23">
         <v>119592</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="24">
         <v>119592</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="24">
         <v>5979.6</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="24">
         <v>0</v>
       </c>
-      <c r="J11" s="25" t="n">
+      <c r="J11" s="25">
         <v>5979.6</v>
       </c>
-      <c r="K11" s="24" t="n"/>
-      <c r="L11" s="24" t="n"/>
-      <c r="M11" s="24" t="n"/>
-      <c r="N11" s="24" t="n"/>
-      <c r="O11" s="25" t="n"/>
-    </row>
-    <row r="12">
-      <c r="E12" s="22" t="inlineStr">
-        <is>
-          <t>02_2024</t>
-        </is>
-      </c>
-      <c r="F12" s="23" t="n">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="23">
         <v>128105</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="24">
         <v>247697</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="24">
         <v>12384.85</v>
       </c>
-      <c r="I12" s="24" t="n">
+      <c r="I12" s="24">
         <v>5979.6</v>
       </c>
-      <c r="J12" s="25" t="n">
+      <c r="J12" s="25">
         <v>6405.25</v>
       </c>
-      <c r="K12" s="24" t="n"/>
-      <c r="L12" s="24" t="n"/>
-      <c r="M12" s="24" t="n"/>
-      <c r="N12" s="24" t="n"/>
-      <c r="O12" s="25" t="n"/>
-      <c r="BR12" t="n">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="BR12">
         <v>10000</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>10000</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>500</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>0</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>500</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" s="22" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="J13" s="10" t="n"/>
-      <c r="O13" s="10" t="n"/>
-      <c r="BR13" t="n">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9">
+        <v>181002</v>
+      </c>
+      <c r="G13">
+        <v>428699</v>
+      </c>
+      <c r="H13">
+        <v>21434.95</v>
+      </c>
+      <c r="I13">
+        <v>12384.85</v>
+      </c>
+      <c r="J13" s="10">
+        <v>9050.1</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="BR13">
         <v>654321</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>666666</v>
       </c>
-      <c r="BT13" t="n">
-        <v>33333.3</v>
-      </c>
-      <c r="BU13" t="n">
+      <c r="BT13">
+        <v>33333.300000000003</v>
+      </c>
+      <c r="BU13">
         <v>0</v>
       </c>
-      <c r="BV13" t="n">
-        <v>33333.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="22" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="O14" s="10" t="n"/>
-    </row>
-    <row r="15">
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="9" t="n"/>
-      <c r="J15" s="10" t="n"/>
-      <c r="O15" s="10" t="n"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="O16" s="10" t="n"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="J17" s="10" t="n"/>
-      <c r="O17" s="10" t="n"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="J18" s="10" t="n"/>
-      <c r="O18" s="10" t="n"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="J19" s="10" t="n"/>
-      <c r="O19" s="10" t="n"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="J20" s="10" t="n"/>
-      <c r="O20" s="10" t="n"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="J21" s="10" t="n"/>
-      <c r="O21" s="10" t="n"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="O22" s="10" t="n"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="9" t="n"/>
-      <c r="J23" s="10" t="n"/>
-      <c r="O23" s="10" t="n"/>
-    </row>
-    <row r="24">
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="9" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="O24" s="10" t="n"/>
-    </row>
-    <row r="25">
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="J25" s="10" t="n"/>
-      <c r="O25" s="10" t="n"/>
-    </row>
-    <row r="26">
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="9" t="n"/>
-      <c r="J26" s="10" t="n"/>
-      <c r="O26" s="10" t="n"/>
-    </row>
-    <row r="27">
-      <c r="E27" s="8" t="n"/>
-      <c r="F27" s="9" t="n"/>
-      <c r="J27" s="10" t="n"/>
-      <c r="O27" s="10" t="n"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="9" t="n"/>
-      <c r="J28" s="10" t="n"/>
-      <c r="O28" s="10" t="n"/>
-    </row>
-    <row r="29">
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="9" t="n"/>
-      <c r="J29" s="10" t="n"/>
-      <c r="O29" s="10" t="n"/>
-    </row>
-    <row r="30">
-      <c r="E30" s="8" t="n"/>
-      <c r="F30" s="9" t="n"/>
-      <c r="J30" s="10" t="n"/>
-      <c r="O30" s="10" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="9" t="n"/>
-      <c r="J31" s="10" t="n"/>
-      <c r="O31" s="10" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="8" t="n"/>
-      <c r="F32" s="9" t="n"/>
-      <c r="J32" s="10" t="n"/>
-      <c r="O32" s="10" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="9" t="n"/>
-      <c r="J33" s="10" t="n"/>
-      <c r="O33" s="10" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="8" t="n"/>
-      <c r="F34" s="9" t="n"/>
-      <c r="J34" s="10" t="n"/>
-      <c r="O34" s="10" t="n"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="8" t="n"/>
-      <c r="F35" s="9" t="n"/>
-      <c r="J35" s="10" t="n"/>
-      <c r="O35" s="10" t="n"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="9" t="n"/>
-      <c r="J36" s="10" t="n"/>
-      <c r="O36" s="10" t="n"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="9" t="n"/>
-      <c r="J37" s="10" t="n"/>
-      <c r="O37" s="10" t="n"/>
-    </row>
-    <row r="38">
-      <c r="J38" s="10" t="n"/>
+      <c r="BV13">
+        <v>33333.300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E14" s="22"/>
+      <c r="F14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Tax/data/L_02a.xlsx
+++ b/Tax/data/L_02a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\Tax\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A560D400-A407-4851-B850-E63B89139B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0C9CB-304A-44DA-A3D9-E968D3CE455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="7695" windowWidth="28365" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2655" windowWidth="27405" windowHeight="18945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>.</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>03_2024</t>
+  </si>
+  <si>
+    <t>04_2024</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1052,24 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E14" s="22"/>
-      <c r="F14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9">
+        <v>162285</v>
+      </c>
+      <c r="G14">
+        <v>590984</v>
+      </c>
+      <c r="H14">
+        <v>29549.200000000001</v>
+      </c>
+      <c r="I14">
+        <v>21434.95</v>
+      </c>
+      <c r="J14" s="10">
+        <v>8114.25</v>
+      </c>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">

--- a/Tax/data/L_02a.xlsx
+++ b/Tax/data/L_02a.xlsx
@@ -1,137 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\Tax\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0C9CB-304A-44DA-A3D9-E968D3CE455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2655" windowWidth="27405" windowHeight="18945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2655" windowWidth="27405" windowHeight="18945" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FOP" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOP" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>HEL</t>
-  </si>
-  <si>
-    <t>quarterly income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total inc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total tax </t>
-  </si>
-  <si>
-    <t>prev tax</t>
-  </si>
-  <si>
-    <t>tax pay</t>
-  </si>
-  <si>
-    <t>01_2022</t>
-  </si>
-  <si>
-    <t>02_2022</t>
-  </si>
-  <si>
-    <t>03_2022</t>
-  </si>
-  <si>
-    <t>04_2022</t>
-  </si>
-  <si>
-    <t>01_2023</t>
-  </si>
-  <si>
-    <t>02_2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hel</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>03_2023</t>
-  </si>
-  <si>
-    <t>04_2023</t>
-  </si>
-  <si>
-    <t>01_2024</t>
-  </si>
-  <si>
-    <t>02_2024</t>
-  </si>
-  <si>
-    <t>03_2024</t>
-  </si>
-  <si>
-    <t>04_2024</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF525252"/>
       <sz val="10"/>
-      <color rgb="FF525252"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -229,69 +142,128 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -591,630 +563,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.140625" customWidth="1" min="12" max="12"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+    <row r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>HEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>quarterly income</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total inc </t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total tax </t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>prev tax</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>tax pay</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>quarterly income</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total inc </t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">total tax </t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>prev tax</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>tax pay</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="7" t="n">
         <v>9165</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>01_2022</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4">
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>02_2022</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" t="n">
         <v>36000</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>1800</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1600</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="L4">
+      <c r="J4" s="10" t="n"/>
+      <c r="L4" t="n">
         <v>84750</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2900</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="10" t="n">
         <v>1337.5</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5">
+      <c r="B5" s="7" t="n">
         <v>23168.32</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>03_2022</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n">
         <v>15100</v>
       </c>
       <c r="G5">
         <f>G4+F5</f>
-        <v>51100</v>
+        <v/>
       </c>
       <c r="H5" s="11">
         <f>G5*0.05</f>
-        <v>2555</v>
+        <v/>
       </c>
       <c r="I5">
         <f>H4</f>
-        <v>1800</v>
+        <v/>
       </c>
       <c r="J5" s="10">
         <f>H5-I5</f>
-        <v>755</v>
-      </c>
-      <c r="K5">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>106334.03</v>
       </c>
       <c r="L5">
         <f>L4+K5</f>
-        <v>191084.03</v>
+        <v/>
       </c>
       <c r="M5" s="12">
         <f>L5*0.05</f>
-        <v>9554.201500000001</v>
-      </c>
-      <c r="N5">
+        <v/>
+      </c>
+      <c r="N5" t="n">
         <v>4237.5</v>
       </c>
       <c r="O5" s="13">
         <f>M5-N5</f>
-        <v>5316.701500000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="n">
         <v>23400</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>04_2022</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n">
         <v>70560</v>
       </c>
       <c r="G6">
         <f>G5+F6</f>
-        <v>121660</v>
+        <v/>
       </c>
       <c r="H6" s="11">
         <f>G6*0.05</f>
-        <v>6083</v>
+        <v/>
       </c>
       <c r="I6">
         <f>H5</f>
-        <v>2555</v>
+        <v/>
       </c>
       <c r="J6" s="10">
         <f>H6-I6</f>
-        <v>3528</v>
-      </c>
-      <c r="K6">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>80850</v>
       </c>
       <c r="L6">
         <f>L5+K6</f>
-        <v>271934.03000000003</v>
+        <v/>
       </c>
       <c r="M6" s="12">
         <f>L6*0.05</f>
-        <v>13596.701500000003</v>
+        <v/>
       </c>
       <c r="N6" s="14">
         <f>M5</f>
-        <v>9554.201500000001</v>
+        <v/>
       </c>
       <c r="O6" s="13">
         <f>M6-N6</f>
-        <v>4042.5000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="15">
         <f>SUM(B3:B6)</f>
-        <v>70733.320000000007</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
+        <v/>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>01_2023</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>54000</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>54000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="11" t="n">
         <v>2700</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="10" t="n">
         <v>2700</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>81580</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>81580</v>
       </c>
       <c r="M7" s="11">
         <f>L7*0.05</f>
-        <v>4079</v>
-      </c>
-      <c r="N7">
+        <v/>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="10">
         <f>L7*0.05</f>
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>02_2023</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="n">
         <v>58500</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>112500</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="11" t="n">
         <v>5625</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>2700</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="10" t="n">
         <v>2925</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>75228.36</v>
       </c>
       <c r="L8">
         <f>L7+K8</f>
-        <v>156808.35999999999</v>
+        <v/>
       </c>
       <c r="M8" s="12">
         <f>L8*0.05</f>
-        <v>7840.4179999999997</v>
+        <v/>
       </c>
       <c r="N8">
         <f>M7</f>
-        <v>4079</v>
+        <v/>
       </c>
       <c r="O8" s="13">
         <f>M8-N8</f>
-        <v>3761.4179999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="18">
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="16">
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hel</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>San</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>03_2023</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="n">
         <v>61500</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="19" t="n">
         <v>174000</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="19" t="n">
         <v>8700</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="19" t="n">
         <v>5625</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="20" t="n">
         <v>3075</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="19" t="n">
         <v>4493</v>
       </c>
-      <c r="L9" s="19">
-        <v>161301.35999999999</v>
-      </c>
-      <c r="M9" s="19">
-        <v>8065.0679999999993</v>
-      </c>
-      <c r="N9" s="19">
-        <v>7840.4179999999997</v>
-      </c>
-      <c r="O9" s="20">
-        <v>224.64999999999961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="L9" s="19" t="n">
+        <v>161301.36</v>
+      </c>
+      <c r="M9" s="19" t="n">
+        <v>8065.067999999999</v>
+      </c>
+      <c r="N9" s="19" t="n">
+        <v>7840.418</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>224.6499999999996</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="n">
         <v>44577</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>4300</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>2400</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>04_2023</t>
+        </is>
+      </c>
+      <c r="F10" s="23" t="n">
         <v>63000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="24" t="n">
         <v>237000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="24" t="n">
         <v>11850</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="24" t="n">
         <v>8700</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="25" t="n">
         <v>3150</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>01_2024</t>
+        </is>
+      </c>
+      <c r="F11" s="23" t="n">
         <v>119592</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="24" t="n">
         <v>119592</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="24" t="n">
         <v>5979.6</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="25" t="n">
         <v>5979.6</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="24" t="n"/>
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="25" t="n"/>
+    </row>
+    <row r="12">
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>02_2024</t>
+        </is>
+      </c>
+      <c r="F12" s="23" t="n">
         <v>128105</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="24" t="n">
         <v>247697</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="24" t="n">
         <v>12384.85</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="24" t="n">
         <v>5979.6</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="25" t="n">
         <v>6405.25</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="BR12">
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="25" t="n"/>
+      <c r="BR12" t="n">
         <v>10000</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>10000</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>500</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>0</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9">
+    <row r="13">
+      <c r="E13" s="22" t="inlineStr">
+        <is>
+          <t>03_2024</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
         <v>181002</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>428699</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>21434.95</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>12384.85</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="10" t="n">
         <v>9050.1</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="BR13">
+      <c r="O13" s="10" t="n"/>
+      <c r="BR13" t="n">
         <v>654321</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>666666</v>
       </c>
-      <c r="BT13">
-        <v>33333.300000000003</v>
-      </c>
-      <c r="BU13">
+      <c r="BT13" t="n">
+        <v>33333.3</v>
+      </c>
+      <c r="BU13" t="n">
         <v>0</v>
       </c>
-      <c r="BV13">
-        <v>33333.300000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="BV13" t="n">
+        <v>33333.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>04_2024</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>162285</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>590984</v>
       </c>
-      <c r="H14">
-        <v>29549.200000000001</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="n">
+        <v>29549.2</v>
+      </c>
+      <c r="I14" t="n">
         <v>21434.95</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="10" t="n">
         <v>8114.25</v>
       </c>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="O25" s="10"/>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="O29" s="10"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="O37" s="10"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="10"/>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>01_2025</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>163231</v>
+      </c>
+      <c r="G15" t="n">
+        <v>163231</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8161.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>8161.55</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16">
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="J16" s="10" t="n"/>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17">
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="J18" s="10" t="n"/>
+      <c r="O18" s="10" t="n"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="J19" s="10" t="n"/>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="J20" s="10" t="n"/>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="J21" s="10" t="n"/>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="O26" s="10" t="n"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="J27" s="10" t="n"/>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="J28" s="10" t="n"/>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="J29" s="10" t="n"/>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="J30" s="10" t="n"/>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="J31" s="10" t="n"/>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="J32" s="10" t="n"/>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="J33" s="10" t="n"/>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="J34" s="10" t="n"/>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="J35" s="10" t="n"/>
+      <c r="O35" s="10" t="n"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="9" t="n"/>
+      <c r="J36" s="10" t="n"/>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="J37" s="10" t="n"/>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>